--- a/SOFTWARE/Thermal/1D forloops/Validation/layup3.xlsx
+++ b/SOFTWARE/Thermal/1D forloops/Validation/layup3.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="10">
   <si>
     <t>Line</t>
   </si>
@@ -43,6 +43,9 @@
   </si>
   <si>
     <t>calc4</t>
+  </si>
+  <si>
+    <t>Time</t>
   </si>
 </sst>
 </file>
@@ -213,7 +216,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Standaard" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -226,9 +229,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Kantoorthema">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Kantoor">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -266,7 +269,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Kantoor">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -338,7 +341,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Kantoor">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -512,10 +515,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AK22"/>
+  <dimension ref="A1:AK72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="P1" workbookViewId="0">
-      <selection activeCell="X15" sqref="X15"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="U44" sqref="U44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -922,7 +925,7 @@
         <v>775</v>
       </c>
       <c r="F6" s="2">
-        <v>725</v>
+        <v>820</v>
       </c>
       <c r="G6" s="2">
         <v>845</v>
@@ -1318,7 +1321,7 @@
       <c r="AJ12" s="1"/>
       <c r="AK12" s="1"/>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="1"/>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -1357,41 +1360,1762 @@
       <c r="AJ13" s="1"/>
       <c r="AK13" s="1"/>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="1"/>
       <c r="B14" s="1"/>
-    </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="E14" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>1</v>
+      </c>
+      <c r="G14" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H14" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="I14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="M14" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="1"/>
       <c r="B15" s="1"/>
-    </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.3">
+      <c r="E15" s="8">
+        <v>124</v>
+      </c>
+      <c r="F15" s="6">
+        <v>25</v>
+      </c>
+      <c r="G15" s="2">
+        <v>25</v>
+      </c>
+      <c r="H15" s="2">
+        <v>25</v>
+      </c>
+      <c r="I15" s="2">
+        <v>25</v>
+      </c>
+      <c r="J15" s="2">
+        <v>25</v>
+      </c>
+      <c r="K15" s="2">
+        <v>25</v>
+      </c>
+      <c r="L15" s="2">
+        <v>25</v>
+      </c>
+      <c r="M15" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="16" spans="1:37" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="1"/>
       <c r="B16" s="1"/>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E16" s="8">
+        <v>130</v>
+      </c>
+      <c r="F16" s="6">
+        <v>420</v>
+      </c>
+      <c r="G16" s="2">
+        <v>225</v>
+      </c>
+      <c r="H16" s="2">
+        <v>25</v>
+      </c>
+      <c r="I16" s="2">
+        <v>25</v>
+      </c>
+      <c r="J16" s="2">
+        <v>575</v>
+      </c>
+      <c r="K16" s="2">
+        <v>115</v>
+      </c>
+      <c r="L16" s="2">
+        <v>30</v>
+      </c>
+      <c r="M16" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="1"/>
       <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E17" s="8">
+        <v>140</v>
+      </c>
+      <c r="F17" s="6">
+        <v>575</v>
+      </c>
+      <c r="G17" s="2">
+        <v>460</v>
+      </c>
+      <c r="H17" s="2">
+        <v>45</v>
+      </c>
+      <c r="I17" s="2">
+        <v>35</v>
+      </c>
+      <c r="J17" s="2">
+        <v>720</v>
+      </c>
+      <c r="K17" s="2">
+        <v>270</v>
+      </c>
+      <c r="L17" s="2">
+        <v>40</v>
+      </c>
+      <c r="M17" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="1"/>
       <c r="B18" s="1"/>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E18" s="8">
+        <v>150</v>
+      </c>
+      <c r="F18" s="6">
+        <v>645</v>
+      </c>
+      <c r="G18" s="2">
+        <v>555</v>
+      </c>
+      <c r="H18" s="2">
+        <v>75</v>
+      </c>
+      <c r="I18" s="2">
+        <v>40</v>
+      </c>
+      <c r="J18" s="2">
+        <v>775</v>
+      </c>
+      <c r="K18" s="2">
+        <v>380</v>
+      </c>
+      <c r="L18" s="2">
+        <v>60</v>
+      </c>
+      <c r="M18" s="2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="1"/>
       <c r="B19" s="1"/>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E19" s="8">
+        <v>160</v>
+      </c>
+      <c r="F19" s="6">
+        <v>670</v>
+      </c>
+      <c r="G19" s="2">
+        <v>605</v>
+      </c>
+      <c r="H19" s="2">
+        <v>150</v>
+      </c>
+      <c r="I19" s="2">
+        <v>45</v>
+      </c>
+      <c r="J19" s="2">
+        <v>820</v>
+      </c>
+      <c r="K19" s="2">
+        <v>460</v>
+      </c>
+      <c r="L19" s="2">
+        <v>90</v>
+      </c>
+      <c r="M19" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="1"/>
       <c r="B20" s="1"/>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E20" s="8">
+        <v>170</v>
+      </c>
+      <c r="F20" s="6">
+        <v>690</v>
+      </c>
+      <c r="G20" s="2">
+        <v>640</v>
+      </c>
+      <c r="H20" s="2">
+        <v>235</v>
+      </c>
+      <c r="I20" s="2">
+        <v>50</v>
+      </c>
+      <c r="J20" s="2">
+        <v>845</v>
+      </c>
+      <c r="K20" s="2">
+        <v>525</v>
+      </c>
+      <c r="L20" s="2">
+        <v>145</v>
+      </c>
+      <c r="M20" s="2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="1"/>
       <c r="B21" s="1"/>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E21" s="8">
+        <v>180</v>
+      </c>
+      <c r="F21" s="6">
+        <v>705</v>
+      </c>
+      <c r="G21" s="2">
+        <v>655</v>
+      </c>
+      <c r="H21" s="2">
+        <v>305</v>
+      </c>
+      <c r="I21" s="2">
+        <v>50</v>
+      </c>
+      <c r="J21" s="2">
+        <v>855</v>
+      </c>
+      <c r="K21" s="2">
+        <v>560</v>
+      </c>
+      <c r="L21" s="2">
+        <v>190</v>
+      </c>
+      <c r="M21" s="2">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="1"/>
       <c r="B22" s="1"/>
+      <c r="E22" s="8">
+        <v>190</v>
+      </c>
+      <c r="F22" s="6">
+        <v>725</v>
+      </c>
+      <c r="G22" s="2">
+        <v>670</v>
+      </c>
+      <c r="H22" s="2">
+        <v>360</v>
+      </c>
+      <c r="I22" s="2">
+        <v>50</v>
+      </c>
+      <c r="J22" s="2">
+        <v>870</v>
+      </c>
+      <c r="K22" s="2">
+        <v>600</v>
+      </c>
+      <c r="L22" s="2">
+        <v>240</v>
+      </c>
+      <c r="M22" s="2">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E23" s="8">
+        <v>200</v>
+      </c>
+      <c r="F23" s="6">
+        <v>730</v>
+      </c>
+      <c r="G23" s="2">
+        <v>690</v>
+      </c>
+      <c r="H23" s="2">
+        <v>410</v>
+      </c>
+      <c r="I23" s="2">
+        <v>75</v>
+      </c>
+      <c r="J23" s="2">
+        <v>880</v>
+      </c>
+      <c r="K23" s="2">
+        <v>630</v>
+      </c>
+      <c r="L23" s="2">
+        <v>270</v>
+      </c>
+      <c r="M23" s="2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E24" s="8">
+        <v>210</v>
+      </c>
+      <c r="F24" s="6">
+        <v>748</v>
+      </c>
+      <c r="G24" s="2">
+        <v>710</v>
+      </c>
+      <c r="H24" s="2">
+        <v>460</v>
+      </c>
+      <c r="I24" s="2">
+        <v>105</v>
+      </c>
+      <c r="J24" s="2">
+        <v>890</v>
+      </c>
+      <c r="K24" s="2">
+        <v>655</v>
+      </c>
+      <c r="L24" s="2">
+        <v>320</v>
+      </c>
+      <c r="M24" s="2">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E25" s="8">
+        <v>220</v>
+      </c>
+      <c r="F25" s="6">
+        <v>690</v>
+      </c>
+      <c r="G25" s="2">
+        <v>705</v>
+      </c>
+      <c r="H25" s="2">
+        <v>503</v>
+      </c>
+      <c r="I25" s="2">
+        <v>145</v>
+      </c>
+      <c r="J25" s="2">
+        <v>750</v>
+      </c>
+      <c r="K25" s="2">
+        <v>675</v>
+      </c>
+      <c r="L25" s="2">
+        <v>345</v>
+      </c>
+      <c r="M25" s="2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E26" s="8">
+        <v>230</v>
+      </c>
+      <c r="F26" s="6">
+        <v>575</v>
+      </c>
+      <c r="G26" s="2">
+        <v>610</v>
+      </c>
+      <c r="H26" s="2">
+        <v>503</v>
+      </c>
+      <c r="I26" s="2">
+        <v>165</v>
+      </c>
+      <c r="J26" s="2">
+        <v>550</v>
+      </c>
+      <c r="K26" s="2">
+        <v>640</v>
+      </c>
+      <c r="L26" s="2">
+        <v>370</v>
+      </c>
+      <c r="M26" s="2">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E27" s="8">
+        <v>240</v>
+      </c>
+      <c r="F27" s="6">
+        <v>495</v>
+      </c>
+      <c r="G27" s="2">
+        <v>540</v>
+      </c>
+      <c r="H27" s="2">
+        <v>485</v>
+      </c>
+      <c r="I27" s="2">
+        <v>205</v>
+      </c>
+      <c r="J27" s="2">
+        <v>460</v>
+      </c>
+      <c r="K27" s="2">
+        <v>575</v>
+      </c>
+      <c r="L27" s="2">
+        <v>380</v>
+      </c>
+      <c r="M27" s="2">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E28" s="8">
+        <v>250</v>
+      </c>
+      <c r="F28" s="6">
+        <v>440</v>
+      </c>
+      <c r="G28" s="2">
+        <v>480</v>
+      </c>
+      <c r="H28" s="2">
+        <v>460</v>
+      </c>
+      <c r="I28" s="2">
+        <v>230</v>
+      </c>
+      <c r="J28" s="2">
+        <v>390</v>
+      </c>
+      <c r="K28" s="2">
+        <v>520</v>
+      </c>
+      <c r="L28" s="2">
+        <v>390</v>
+      </c>
+      <c r="M28" s="2">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E29" s="8">
+        <v>260</v>
+      </c>
+      <c r="F29" s="6">
+        <v>395</v>
+      </c>
+      <c r="G29" s="2">
+        <v>445</v>
+      </c>
+      <c r="H29" s="2">
+        <v>440</v>
+      </c>
+      <c r="I29" s="2">
+        <v>240</v>
+      </c>
+      <c r="J29" s="2">
+        <v>335</v>
+      </c>
+      <c r="K29" s="2">
+        <v>460</v>
+      </c>
+      <c r="L29" s="2">
+        <v>390</v>
+      </c>
+      <c r="M29" s="2">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E30" s="8">
+        <v>270</v>
+      </c>
+      <c r="F30" s="6">
+        <v>348</v>
+      </c>
+      <c r="G30" s="2">
+        <v>400</v>
+      </c>
+      <c r="H30" s="2">
+        <v>420</v>
+      </c>
+      <c r="I30" s="2">
+        <v>245</v>
+      </c>
+      <c r="J30" s="2">
+        <v>280</v>
+      </c>
+      <c r="K30" s="2">
+        <v>415</v>
+      </c>
+      <c r="L30" s="2">
+        <v>390</v>
+      </c>
+      <c r="M30" s="2">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E31" s="8">
+        <v>280</v>
+      </c>
+      <c r="F31" s="6">
+        <v>290</v>
+      </c>
+      <c r="G31" s="2">
+        <v>330</v>
+      </c>
+      <c r="H31" s="2">
+        <v>400</v>
+      </c>
+      <c r="I31" s="2">
+        <v>250</v>
+      </c>
+      <c r="J31" s="2">
+        <v>225</v>
+      </c>
+      <c r="K31" s="2">
+        <v>370</v>
+      </c>
+      <c r="L31" s="2">
+        <v>380</v>
+      </c>
+      <c r="M31" s="2">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E32" s="8">
+        <v>290</v>
+      </c>
+      <c r="F32" s="6">
+        <v>260</v>
+      </c>
+      <c r="G32" s="2">
+        <v>280</v>
+      </c>
+      <c r="H32" s="2">
+        <v>380</v>
+      </c>
+      <c r="I32" s="2">
+        <v>250</v>
+      </c>
+      <c r="J32" s="2">
+        <v>185</v>
+      </c>
+      <c r="K32" s="2">
+        <v>330</v>
+      </c>
+      <c r="L32" s="2">
+        <v>375</v>
+      </c>
+      <c r="M32" s="2">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="33" spans="5:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E33" s="8">
+        <v>300</v>
+      </c>
+      <c r="F33" s="6">
+        <v>225</v>
+      </c>
+      <c r="G33" s="2">
+        <v>260</v>
+      </c>
+      <c r="H33" s="2">
+        <v>355</v>
+      </c>
+      <c r="I33" s="2">
+        <v>250</v>
+      </c>
+      <c r="J33" s="2">
+        <v>125</v>
+      </c>
+      <c r="K33" s="2">
+        <v>285</v>
+      </c>
+      <c r="L33" s="2">
+        <v>365</v>
+      </c>
+      <c r="M33" s="2">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="34" spans="5:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E34" s="8">
+        <v>310</v>
+      </c>
+      <c r="F34" s="6">
+        <v>185</v>
+      </c>
+      <c r="G34" s="2">
+        <v>220</v>
+      </c>
+      <c r="H34" s="2">
+        <v>330</v>
+      </c>
+      <c r="I34" s="2">
+        <v>245</v>
+      </c>
+      <c r="J34" s="2">
+        <v>60</v>
+      </c>
+      <c r="K34" s="2">
+        <v>245</v>
+      </c>
+      <c r="L34" s="2">
+        <v>350</v>
+      </c>
+      <c r="M34" s="2">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="35" spans="5:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E35" s="8">
+        <v>320</v>
+      </c>
+      <c r="F35" s="6">
+        <v>160</v>
+      </c>
+      <c r="G35" s="2">
+        <v>180</v>
+      </c>
+      <c r="H35" s="2">
+        <v>305</v>
+      </c>
+      <c r="I35" s="2">
+        <v>240</v>
+      </c>
+      <c r="J35" s="2">
+        <v>0</v>
+      </c>
+      <c r="K35" s="2">
+        <v>195</v>
+      </c>
+      <c r="L35" s="2">
+        <v>340</v>
+      </c>
+      <c r="M35" s="2">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="36" spans="5:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E36" s="8">
+        <v>330</v>
+      </c>
+      <c r="F36" s="6">
+        <v>145</v>
+      </c>
+      <c r="G36" s="2">
+        <v>155</v>
+      </c>
+      <c r="H36" s="2">
+        <v>285</v>
+      </c>
+      <c r="I36" s="2">
+        <v>235</v>
+      </c>
+      <c r="J36" s="2">
+        <v>0</v>
+      </c>
+      <c r="K36" s="2">
+        <v>140</v>
+      </c>
+      <c r="L36" s="2">
+        <v>330</v>
+      </c>
+      <c r="M36" s="2">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="37" spans="5:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E37" s="8">
+        <v>340</v>
+      </c>
+      <c r="F37" s="6">
+        <v>140</v>
+      </c>
+      <c r="G37" s="2">
+        <v>150</v>
+      </c>
+      <c r="H37" s="2">
+        <v>265</v>
+      </c>
+      <c r="I37" s="2">
+        <v>220</v>
+      </c>
+      <c r="J37" s="2">
+        <v>0</v>
+      </c>
+      <c r="K37" s="2">
+        <v>30</v>
+      </c>
+      <c r="L37" s="2">
+        <v>305</v>
+      </c>
+      <c r="M37" s="2">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="38" spans="5:13" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E38" s="9">
+        <v>350</v>
+      </c>
+      <c r="F38" s="6">
+        <v>140</v>
+      </c>
+      <c r="G38" s="2">
+        <v>145</v>
+      </c>
+      <c r="H38" s="2">
+        <v>250</v>
+      </c>
+      <c r="I38" s="2">
+        <v>210</v>
+      </c>
+      <c r="J38" s="2">
+        <v>0</v>
+      </c>
+      <c r="K38" s="2">
+        <v>0</v>
+      </c>
+      <c r="L38" s="2">
+        <v>285</v>
+      </c>
+      <c r="M38" s="2">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="41" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E41">
+        <f>E15-E$15</f>
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <f>F15+273</f>
+        <v>298</v>
+      </c>
+      <c r="G41">
+        <f t="shared" ref="G41:M41" si="0">G15+273</f>
+        <v>298</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="0"/>
+        <v>298</v>
+      </c>
+      <c r="I41">
+        <f t="shared" si="0"/>
+        <v>298</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="0"/>
+        <v>298</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="0"/>
+        <v>298</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="0"/>
+        <v>298</v>
+      </c>
+      <c r="M41">
+        <f t="shared" si="0"/>
+        <v>298</v>
+      </c>
+    </row>
+    <row r="42" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E42">
+        <f t="shared" ref="E42:E64" si="1">E16-E$15</f>
+        <v>6</v>
+      </c>
+      <c r="F42">
+        <f t="shared" ref="F42:M42" si="2">F16+273</f>
+        <v>693</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="2"/>
+        <v>498</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="2"/>
+        <v>298</v>
+      </c>
+      <c r="I42">
+        <f t="shared" si="2"/>
+        <v>298</v>
+      </c>
+      <c r="J42">
+        <f t="shared" si="2"/>
+        <v>848</v>
+      </c>
+      <c r="K42">
+        <f t="shared" si="2"/>
+        <v>388</v>
+      </c>
+      <c r="L42">
+        <f t="shared" si="2"/>
+        <v>303</v>
+      </c>
+      <c r="M42">
+        <f t="shared" si="2"/>
+        <v>298</v>
+      </c>
+    </row>
+    <row r="43" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E43">
+        <f t="shared" si="1"/>
+        <v>16</v>
+      </c>
+      <c r="F43">
+        <f t="shared" ref="F43:M43" si="3">F17+273</f>
+        <v>848</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="3"/>
+        <v>733</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="3"/>
+        <v>318</v>
+      </c>
+      <c r="I43">
+        <f t="shared" si="3"/>
+        <v>308</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="3"/>
+        <v>993</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="3"/>
+        <v>543</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="3"/>
+        <v>313</v>
+      </c>
+      <c r="M43">
+        <f t="shared" si="3"/>
+        <v>298</v>
+      </c>
+    </row>
+    <row r="44" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E44">
+        <f t="shared" si="1"/>
+        <v>26</v>
+      </c>
+      <c r="F44">
+        <f t="shared" ref="F44:M44" si="4">F18+273</f>
+        <v>918</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="4"/>
+        <v>828</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="4"/>
+        <v>348</v>
+      </c>
+      <c r="I44">
+        <f t="shared" si="4"/>
+        <v>313</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="4"/>
+        <v>1048</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="4"/>
+        <v>653</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="4"/>
+        <v>333</v>
+      </c>
+      <c r="M44">
+        <f t="shared" si="4"/>
+        <v>298</v>
+      </c>
+    </row>
+    <row r="45" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E45">
+        <f t="shared" si="1"/>
+        <v>36</v>
+      </c>
+      <c r="F45">
+        <f t="shared" ref="F45:M45" si="5">F19+273</f>
+        <v>943</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="5"/>
+        <v>878</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="5"/>
+        <v>423</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="5"/>
+        <v>318</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="5"/>
+        <v>1093</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="5"/>
+        <v>733</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="5"/>
+        <v>363</v>
+      </c>
+      <c r="M45">
+        <f t="shared" si="5"/>
+        <v>308</v>
+      </c>
+    </row>
+    <row r="46" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E46">
+        <f t="shared" si="1"/>
+        <v>46</v>
+      </c>
+      <c r="F46">
+        <f t="shared" ref="F46:M46" si="6">F20+273</f>
+        <v>963</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="6"/>
+        <v>913</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="6"/>
+        <v>508</v>
+      </c>
+      <c r="I46">
+        <f t="shared" si="6"/>
+        <v>323</v>
+      </c>
+      <c r="J46">
+        <f t="shared" si="6"/>
+        <v>1118</v>
+      </c>
+      <c r="K46">
+        <f t="shared" si="6"/>
+        <v>798</v>
+      </c>
+      <c r="L46">
+        <f t="shared" si="6"/>
+        <v>418</v>
+      </c>
+      <c r="M46">
+        <f t="shared" si="6"/>
+        <v>313</v>
+      </c>
+    </row>
+    <row r="47" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E47">
+        <f t="shared" si="1"/>
+        <v>56</v>
+      </c>
+      <c r="F47">
+        <f t="shared" ref="F47:M47" si="7">F21+273</f>
+        <v>978</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="7"/>
+        <v>928</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="7"/>
+        <v>578</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="7"/>
+        <v>323</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="7"/>
+        <v>1128</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="7"/>
+        <v>833</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="7"/>
+        <v>463</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="7"/>
+        <v>333</v>
+      </c>
+    </row>
+    <row r="48" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E48">
+        <f t="shared" si="1"/>
+        <v>66</v>
+      </c>
+      <c r="F48">
+        <f t="shared" ref="F48:M48" si="8">F22+273</f>
+        <v>998</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="8"/>
+        <v>943</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="8"/>
+        <v>633</v>
+      </c>
+      <c r="I48">
+        <f t="shared" si="8"/>
+        <v>323</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="8"/>
+        <v>1143</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="8"/>
+        <v>873</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="8"/>
+        <v>513</v>
+      </c>
+      <c r="M48">
+        <f t="shared" si="8"/>
+        <v>343</v>
+      </c>
+    </row>
+    <row r="49" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E49">
+        <f t="shared" si="1"/>
+        <v>76</v>
+      </c>
+      <c r="F49">
+        <f t="shared" ref="F49:M49" si="9">F23+273</f>
+        <v>1003</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="9"/>
+        <v>963</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="9"/>
+        <v>683</v>
+      </c>
+      <c r="I49">
+        <f t="shared" si="9"/>
+        <v>348</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="9"/>
+        <v>1153</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="9"/>
+        <v>903</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="9"/>
+        <v>543</v>
+      </c>
+      <c r="M49">
+        <f t="shared" si="9"/>
+        <v>373</v>
+      </c>
+    </row>
+    <row r="50" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E50">
+        <f t="shared" si="1"/>
+        <v>86</v>
+      </c>
+      <c r="F50">
+        <f t="shared" ref="F50:M50" si="10">F24+273</f>
+        <v>1021</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="10"/>
+        <v>983</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="10"/>
+        <v>733</v>
+      </c>
+      <c r="I50">
+        <f t="shared" si="10"/>
+        <v>378</v>
+      </c>
+      <c r="J50">
+        <f t="shared" si="10"/>
+        <v>1163</v>
+      </c>
+      <c r="K50">
+        <f t="shared" si="10"/>
+        <v>928</v>
+      </c>
+      <c r="L50">
+        <f t="shared" si="10"/>
+        <v>593</v>
+      </c>
+      <c r="M50">
+        <f t="shared" si="10"/>
+        <v>403</v>
+      </c>
+    </row>
+    <row r="51" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E51">
+        <f t="shared" si="1"/>
+        <v>96</v>
+      </c>
+      <c r="F51">
+        <f t="shared" ref="F51:M51" si="11">F25+273</f>
+        <v>963</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="11"/>
+        <v>978</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="11"/>
+        <v>776</v>
+      </c>
+      <c r="I51">
+        <f t="shared" si="11"/>
+        <v>418</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="11"/>
+        <v>1023</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="11"/>
+        <v>948</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="11"/>
+        <v>618</v>
+      </c>
+      <c r="M51">
+        <f t="shared" si="11"/>
+        <v>433</v>
+      </c>
+    </row>
+    <row r="52" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E52">
+        <f t="shared" si="1"/>
+        <v>106</v>
+      </c>
+      <c r="F52">
+        <f t="shared" ref="F52:M52" si="12">F26+273</f>
+        <v>848</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="12"/>
+        <v>883</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="12"/>
+        <v>776</v>
+      </c>
+      <c r="I52">
+        <f t="shared" si="12"/>
+        <v>438</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="12"/>
+        <v>823</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="12"/>
+        <v>913</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="12"/>
+        <v>643</v>
+      </c>
+      <c r="M52">
+        <f t="shared" si="12"/>
+        <v>468</v>
+      </c>
+    </row>
+    <row r="53" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E53">
+        <f t="shared" si="1"/>
+        <v>116</v>
+      </c>
+      <c r="F53">
+        <f t="shared" ref="F53:M53" si="13">F27+273</f>
+        <v>768</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="13"/>
+        <v>813</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="13"/>
+        <v>758</v>
+      </c>
+      <c r="I53">
+        <f t="shared" si="13"/>
+        <v>478</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="13"/>
+        <v>733</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="13"/>
+        <v>848</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="13"/>
+        <v>653</v>
+      </c>
+      <c r="M53">
+        <f t="shared" si="13"/>
+        <v>503</v>
+      </c>
+    </row>
+    <row r="54" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E54">
+        <f t="shared" si="1"/>
+        <v>126</v>
+      </c>
+      <c r="F54">
+        <f t="shared" ref="F54:M54" si="14">F28+273</f>
+        <v>713</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="14"/>
+        <v>753</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="14"/>
+        <v>733</v>
+      </c>
+      <c r="I54">
+        <f t="shared" si="14"/>
+        <v>503</v>
+      </c>
+      <c r="J54">
+        <f t="shared" si="14"/>
+        <v>663</v>
+      </c>
+      <c r="K54">
+        <f t="shared" si="14"/>
+        <v>793</v>
+      </c>
+      <c r="L54">
+        <f t="shared" si="14"/>
+        <v>663</v>
+      </c>
+      <c r="M54">
+        <f t="shared" si="14"/>
+        <v>533</v>
+      </c>
+    </row>
+    <row r="55" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E55">
+        <f t="shared" si="1"/>
+        <v>136</v>
+      </c>
+      <c r="F55">
+        <f t="shared" ref="F55:M55" si="15">F29+273</f>
+        <v>668</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="15"/>
+        <v>718</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="15"/>
+        <v>713</v>
+      </c>
+      <c r="I55">
+        <f t="shared" si="15"/>
+        <v>513</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="15"/>
+        <v>608</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="15"/>
+        <v>733</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="15"/>
+        <v>663</v>
+      </c>
+      <c r="M55">
+        <f t="shared" si="15"/>
+        <v>563</v>
+      </c>
+    </row>
+    <row r="56" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E56">
+        <f t="shared" si="1"/>
+        <v>146</v>
+      </c>
+      <c r="F56">
+        <f t="shared" ref="F56:M56" si="16">F30+273</f>
+        <v>621</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="16"/>
+        <v>673</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="16"/>
+        <v>693</v>
+      </c>
+      <c r="I56">
+        <f t="shared" si="16"/>
+        <v>518</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="16"/>
+        <v>553</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="16"/>
+        <v>688</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="16"/>
+        <v>663</v>
+      </c>
+      <c r="M56">
+        <f t="shared" si="16"/>
+        <v>588</v>
+      </c>
+    </row>
+    <row r="57" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E57">
+        <f t="shared" si="1"/>
+        <v>156</v>
+      </c>
+      <c r="F57">
+        <f t="shared" ref="F57:M57" si="17">F31+273</f>
+        <v>563</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="17"/>
+        <v>603</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="17"/>
+        <v>673</v>
+      </c>
+      <c r="I57">
+        <f t="shared" si="17"/>
+        <v>523</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="17"/>
+        <v>498</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="17"/>
+        <v>643</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="17"/>
+        <v>653</v>
+      </c>
+      <c r="M57">
+        <f t="shared" si="17"/>
+        <v>608</v>
+      </c>
+    </row>
+    <row r="58" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E58">
+        <f t="shared" si="1"/>
+        <v>166</v>
+      </c>
+      <c r="F58">
+        <f t="shared" ref="F58:M58" si="18">F32+273</f>
+        <v>533</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="18"/>
+        <v>553</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="18"/>
+        <v>653</v>
+      </c>
+      <c r="I58">
+        <f t="shared" si="18"/>
+        <v>523</v>
+      </c>
+      <c r="J58">
+        <f t="shared" si="18"/>
+        <v>458</v>
+      </c>
+      <c r="K58">
+        <f t="shared" si="18"/>
+        <v>603</v>
+      </c>
+      <c r="L58">
+        <f t="shared" si="18"/>
+        <v>648</v>
+      </c>
+      <c r="M58">
+        <f t="shared" si="18"/>
+        <v>613</v>
+      </c>
+    </row>
+    <row r="59" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E59">
+        <f t="shared" si="1"/>
+        <v>176</v>
+      </c>
+      <c r="F59">
+        <f t="shared" ref="F59:M59" si="19">F33+273</f>
+        <v>498</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="19"/>
+        <v>533</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="19"/>
+        <v>628</v>
+      </c>
+      <c r="I59">
+        <f t="shared" si="19"/>
+        <v>523</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="19"/>
+        <v>398</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="19"/>
+        <v>558</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="19"/>
+        <v>638</v>
+      </c>
+      <c r="M59">
+        <f t="shared" si="19"/>
+        <v>671</v>
+      </c>
+    </row>
+    <row r="60" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E60">
+        <f t="shared" si="1"/>
+        <v>186</v>
+      </c>
+      <c r="F60">
+        <f t="shared" ref="F60:M60" si="20">F34+273</f>
+        <v>458</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="20"/>
+        <v>493</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="20"/>
+        <v>603</v>
+      </c>
+      <c r="I60">
+        <f t="shared" si="20"/>
+        <v>518</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="20"/>
+        <v>333</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="20"/>
+        <v>518</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="20"/>
+        <v>623</v>
+      </c>
+      <c r="M60">
+        <f t="shared" si="20"/>
+        <v>671</v>
+      </c>
+    </row>
+    <row r="61" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E61">
+        <f t="shared" si="1"/>
+        <v>196</v>
+      </c>
+      <c r="F61">
+        <f t="shared" ref="F61:M61" si="21">F35+273</f>
+        <v>433</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="21"/>
+        <v>453</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="21"/>
+        <v>578</v>
+      </c>
+      <c r="I61">
+        <f t="shared" si="21"/>
+        <v>513</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="21"/>
+        <v>273</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="21"/>
+        <v>468</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="21"/>
+        <v>613</v>
+      </c>
+      <c r="M61">
+        <f t="shared" si="21"/>
+        <v>671</v>
+      </c>
+    </row>
+    <row r="62" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E62">
+        <f t="shared" si="1"/>
+        <v>206</v>
+      </c>
+      <c r="F62">
+        <f t="shared" ref="F62:M62" si="22">F36+273</f>
+        <v>418</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="22"/>
+        <v>428</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="22"/>
+        <v>558</v>
+      </c>
+      <c r="I62">
+        <f t="shared" si="22"/>
+        <v>508</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="22"/>
+        <v>273</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="22"/>
+        <v>413</v>
+      </c>
+      <c r="L62">
+        <f t="shared" si="22"/>
+        <v>603</v>
+      </c>
+      <c r="M62">
+        <f t="shared" si="22"/>
+        <v>668</v>
+      </c>
+    </row>
+    <row r="63" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E63">
+        <f t="shared" si="1"/>
+        <v>216</v>
+      </c>
+      <c r="F63">
+        <f t="shared" ref="F63:M63" si="23">F37+273</f>
+        <v>413</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="23"/>
+        <v>423</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="23"/>
+        <v>538</v>
+      </c>
+      <c r="I63">
+        <f t="shared" si="23"/>
+        <v>493</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="23"/>
+        <v>273</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="23"/>
+        <v>303</v>
+      </c>
+      <c r="L63">
+        <f t="shared" si="23"/>
+        <v>578</v>
+      </c>
+      <c r="M63">
+        <f t="shared" si="23"/>
+        <v>653</v>
+      </c>
+    </row>
+    <row r="64" spans="5:13" x14ac:dyDescent="0.3">
+      <c r="E64">
+        <f t="shared" si="1"/>
+        <v>226</v>
+      </c>
+      <c r="F64">
+        <f t="shared" ref="F64:M64" si="24">F38+273</f>
+        <v>413</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="24"/>
+        <v>418</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="24"/>
+        <v>523</v>
+      </c>
+      <c r="I64">
+        <f t="shared" si="24"/>
+        <v>483</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="24"/>
+        <v>273</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="24"/>
+        <v>273</v>
+      </c>
+      <c r="L64">
+        <f t="shared" si="24"/>
+        <v>558</v>
+      </c>
+      <c r="M64">
+        <f t="shared" si="24"/>
+        <v>648</v>
+      </c>
+    </row>
+    <row r="67" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I67">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="J67">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="K67">
+        <v>858</v>
+      </c>
+      <c r="L67">
+        <v>1130</v>
+      </c>
+      <c r="M67">
+        <v>0.443</v>
+      </c>
+    </row>
+    <row r="68" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I68">
+        <v>0.50800000000000001</v>
+      </c>
+      <c r="J68">
+        <v>0.14599999999999999</v>
+      </c>
+      <c r="K68">
+        <v>858</v>
+      </c>
+      <c r="L68">
+        <v>1130</v>
+      </c>
+      <c r="M68">
+        <v>0.443</v>
+      </c>
+    </row>
+    <row r="69" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I69">
+        <v>3.048</v>
+      </c>
+      <c r="J69">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K69">
+        <v>170</v>
+      </c>
+      <c r="L69">
+        <v>1046</v>
+      </c>
+      <c r="M69">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I70">
+        <v>3.048</v>
+      </c>
+      <c r="J70">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="K70">
+        <v>170</v>
+      </c>
+      <c r="L70">
+        <v>1046</v>
+      </c>
+      <c r="M70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I71">
+        <v>2.5399999999999999E-2</v>
+      </c>
+      <c r="J71">
+        <v>0.12</v>
+      </c>
+      <c r="K71">
+        <v>1468</v>
+      </c>
+      <c r="L71">
+        <v>1022</v>
+      </c>
+      <c r="M71">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="9:13" x14ac:dyDescent="0.3">
+      <c r="I72">
+        <v>2.5399999999999999E-2</v>
+      </c>
+      <c r="J72">
+        <v>0.12</v>
+      </c>
+      <c r="K72">
+        <v>1468</v>
+      </c>
+      <c r="L72">
+        <v>1022</v>
+      </c>
+      <c r="M72">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
